--- a/endeksdata.xlsx
+++ b/endeksdata.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -707,6 +707,107 @@
         <v>99.63910662824209</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B3" t="n">
+        <v>98.20475247524756</v>
+      </c>
+      <c r="C3" t="n">
+        <v>71.88444444444444</v>
+      </c>
+      <c r="D3" t="n">
+        <v>86.3126984126984</v>
+      </c>
+      <c r="E3" t="n">
+        <v>51.65783333333333</v>
+      </c>
+      <c r="F3" t="n">
+        <v>53.54451219512195</v>
+      </c>
+      <c r="G3" t="n">
+        <v>763.856347826087</v>
+      </c>
+      <c r="H3" t="n">
+        <v>209.6025619834711</v>
+      </c>
+      <c r="I3" t="n">
+        <v>741.953818565401</v>
+      </c>
+      <c r="J3" t="n">
+        <v>534.4330851063829</v>
+      </c>
+      <c r="K3" t="n">
+        <v>387.3681999999999</v>
+      </c>
+      <c r="L3" t="n">
+        <v>245.1269035532994</v>
+      </c>
+      <c r="M3" t="n">
+        <v>164.3162260127932</v>
+      </c>
+      <c r="N3" t="n">
+        <v>373.6765748898679</v>
+      </c>
+      <c r="O3" t="n">
+        <v>7.234155844155842</v>
+      </c>
+      <c r="P3" t="n">
+        <v>493.2711235955056</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>571.1154838709678</v>
+      </c>
+      <c r="R3" t="n">
+        <v>268.5732978723404</v>
+      </c>
+      <c r="S3" t="n">
+        <v>668.5912025316454</v>
+      </c>
+      <c r="T3" t="n">
+        <v>607.4720731707316</v>
+      </c>
+      <c r="U3" t="n">
+        <v>687.0242962962964</v>
+      </c>
+      <c r="V3" t="n">
+        <v>175.7281818181818</v>
+      </c>
+      <c r="W3" t="n">
+        <v>71.28102941176468</v>
+      </c>
+      <c r="X3" t="n">
+        <v>208.1573770491803</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>469.7468571428572</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>249.4680813953488</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>378.8159513534719</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>636.1730961923847</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>372.2813043478261</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>393.5560714285714</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>55.61967032967032</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>84.19703980099504</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>124.2486956521739</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
